--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed5/result_data_RandomForest.xlsx
@@ -466,7 +466,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.551899999999995</v>
+        <v>-7.413799999999993</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.080200000000005</v>
+        <v>-8.184700000000007</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.773600000000001</v>
+        <v>-7.954799999999999</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.1137</v>
+        <v>-8.735400000000002</v>
       </c>
     </row>
     <row r="9">
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.043599999999999</v>
+        <v>6.1002</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.41279999999999</v>
+        <v>-21.40519999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.7342</v>
+        <v>-13.54739999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.37759999999999</v>
+        <v>-8.113799999999992</v>
       </c>
     </row>
     <row r="18">
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.11110000000001</v>
+        <v>-12.89330000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.753500000000003</v>
+        <v>8.7441</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.35319999999999</v>
+        <v>-13.34579999999998</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.8575</v>
+        <v>-21.8891</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.814400000000001</v>
+        <v>-7.777299999999999</v>
       </c>
     </row>
     <row r="28">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.6271</v>
+        <v>5.884800000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.05759999999998</v>
+        <v>-21.02609999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>5.911999999999999</v>
+        <v>6.596900000000002</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.431300000000002</v>
+        <v>9.449000000000003</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.9097</v>
+        <v>-19.832</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.9207</v>
+        <v>-19.62749999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-10.86900000000001</v>
+        <v>-10.56250000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.524</v>
+        <v>-12.38810000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.2435</v>
+        <v>10.66089999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.9544</v>
+        <v>-21.9753</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.546400000000003</v>
+        <v>5.3459</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.133</v>
+        <v>-11.1626</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-22.0385</v>
+        <v>-21.84440000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>4.934300000000001</v>
+        <v>4.9963</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.56830000000002</v>
+        <v>-21.50829999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1208,12 +1208,12 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.740300000000007</v>
+        <v>-7.860600000000002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.09610000000001</v>
+        <v>-22.04560000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.56269999999997</v>
+        <v>-21.54799999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61529999999997</v>
+        <v>-21.60469999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.589600000000001</v>
+        <v>-6.518299999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.015</v>
+        <v>-22.1323</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.8796</v>
+        <v>-11.9311</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.6219</v>
+        <v>9.627800000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.484</v>
+        <v>-12.3019</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1552,13 +1552,13 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.110599999999998</v>
+        <v>9.476499999999998</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.740099999999996</v>
+        <v>-7.294899999999993</v>
       </c>
     </row>
     <row r="81">
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.66689999999998</v>
+        <v>-21.61229999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.82289999999999</v>
+        <v>-13.06239999999998</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-14.19829999999999</v>
+        <v>-14.0207</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.93889999999999</v>
+        <v>-21.73509999999999</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-12.8868</v>
+        <v>-12.8637</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.10450000000001</v>
+        <v>-9.968500000000006</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.43709999999998</v>
+        <v>-20.74879999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.41120000000001</v>
+        <v>-21.30100000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.391500000000002</v>
+        <v>-7.491400000000006</v>
       </c>
     </row>
     <row r="96">
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.3111</v>
+        <v>-10.1239</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.841099999999998</v>
+        <v>6.393799999999996</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1810,15 +1810,15 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.638599999999999</v>
+        <v>-8.252900000000006</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.79499999999999</v>
+        <v>-21.7621</v>
       </c>
       <c r="B99" t="n">
-        <v>6.160199999999998</v>
+        <v>5.725199999999996</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.807699999999998</v>
+        <v>4.956999999999997</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.865499999999996</v>
+        <v>-7.965</v>
       </c>
     </row>
     <row r="103">
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-14.45489999999998</v>
+        <v>-13.81019999999999</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.61829999999999</v>
+        <v>-21.6828</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
